--- a/modelos/OBAFAR4425031/OBAFAR4425031_Sell in_metricas.xlsx
+++ b/modelos/OBAFAR4425031/OBAFAR4425031_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44782</v>
       </c>
       <c r="B2" t="n">
-        <v>72.19704849299224</v>
+        <v>72.19704849588055</v>
       </c>
       <c r="C2" t="n">
-        <v>11.51147084930001</v>
+        <v>9.270190685837425</v>
       </c>
       <c r="D2" t="n">
-        <v>136.4995867186244</v>
+        <v>135.3932098545754</v>
       </c>
       <c r="E2" t="n">
         <v>104</v>
@@ -496,13 +496,13 @@
         <v>44789</v>
       </c>
       <c r="B3" t="n">
-        <v>39.53836197626019</v>
+        <v>39.53836264016435</v>
       </c>
       <c r="C3" t="n">
-        <v>-25.33859767294763</v>
+        <v>-20.15004863937484</v>
       </c>
       <c r="D3" t="n">
-        <v>103.3969753795565</v>
+        <v>103.2695299024152</v>
       </c>
       <c r="E3" t="n">
         <v>80</v>
@@ -516,13 +516,13 @@
         <v>44796</v>
       </c>
       <c r="B4" t="n">
-        <v>-23.51282096538789</v>
+        <v>-23.51282096537723</v>
       </c>
       <c r="C4" t="n">
-        <v>-89.01998495526904</v>
+        <v>-95.18728661989614</v>
       </c>
       <c r="D4" t="n">
-        <v>46.25748044409956</v>
+        <v>41.39958251885888</v>
       </c>
       <c r="E4" t="n">
         <v>112</v>
@@ -536,13 +536,13 @@
         <v>44803</v>
       </c>
       <c r="B5" t="n">
-        <v>7.202093263752508</v>
+        <v>7.202098630534961</v>
       </c>
       <c r="C5" t="n">
-        <v>-55.18828956976498</v>
+        <v>-59.50060245227243</v>
       </c>
       <c r="D5" t="n">
-        <v>69.6871463656415</v>
+        <v>73.34293997778313</v>
       </c>
       <c r="E5" t="n">
         <v>48</v>
@@ -556,13 +556,13 @@
         <v>44806</v>
       </c>
       <c r="B6" t="n">
-        <v>41.93896239781748</v>
+        <v>41.93896239785101</v>
       </c>
       <c r="C6" t="n">
-        <v>-27.2202399050434</v>
+        <v>-22.38999976539233</v>
       </c>
       <c r="D6" t="n">
-        <v>111.9946156207189</v>
+        <v>106.7918828051512</v>
       </c>
       <c r="E6" t="n">
         <v>24</v>
@@ -576,13 +576,13 @@
         <v>44810</v>
       </c>
       <c r="B7" t="n">
-        <v>136.0938230976249</v>
+        <v>136.0938230976588</v>
       </c>
       <c r="C7" t="n">
-        <v>67.72370762184042</v>
+        <v>68.45429452538249</v>
       </c>
       <c r="D7" t="n">
-        <v>203.3362390731185</v>
+        <v>199.1609547285594</v>
       </c>
       <c r="E7" t="n">
         <v>120</v>
@@ -596,13 +596,13 @@
         <v>44817</v>
       </c>
       <c r="B8" t="n">
-        <v>315.2296339927535</v>
+        <v>315.2296339927001</v>
       </c>
       <c r="C8" t="n">
-        <v>247.8987716758012</v>
+        <v>249.5100587077077</v>
       </c>
       <c r="D8" t="n">
-        <v>381.1531042455138</v>
+        <v>377.5276337165363</v>
       </c>
       <c r="E8" t="n">
         <v>440</v>
@@ -616,13 +616,13 @@
         <v>44831</v>
       </c>
       <c r="B9" t="n">
-        <v>444.7782009436945</v>
+        <v>444.7782009436509</v>
       </c>
       <c r="C9" t="n">
-        <v>376.2652744089705</v>
+        <v>373.7043677301081</v>
       </c>
       <c r="D9" t="n">
-        <v>510.3526605019299</v>
+        <v>514.0731975426356</v>
       </c>
       <c r="E9" t="n">
         <v>136</v>
@@ -639,10 +639,10 @@
         <v>19.67790827511341</v>
       </c>
       <c r="C10" t="n">
-        <v>-54.83022601214267</v>
+        <v>-52.53410657803734</v>
       </c>
       <c r="D10" t="n">
-        <v>94.2177185431308</v>
+        <v>96.30259753920085</v>
       </c>
       <c r="E10" t="n">
         <v>112</v>
@@ -656,13 +656,13 @@
         <v>44869</v>
       </c>
       <c r="B11" t="n">
-        <v>29.96250251092293</v>
+        <v>29.96250251262887</v>
       </c>
       <c r="C11" t="n">
-        <v>-42.81712994125437</v>
+        <v>-46.21719968914707</v>
       </c>
       <c r="D11" t="n">
-        <v>99.03926442564183</v>
+        <v>101.9256179464645</v>
       </c>
       <c r="E11" t="n">
         <v>360</v>
@@ -676,13 +676,13 @@
         <v>44873</v>
       </c>
       <c r="B12" t="n">
-        <v>11.80148419324568</v>
+        <v>11.80148419496288</v>
       </c>
       <c r="C12" t="n">
-        <v>-56.93191272441889</v>
+        <v>-64.53568364805199</v>
       </c>
       <c r="D12" t="n">
-        <v>84.46759349508866</v>
+        <v>88.90074543941081</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -696,13 +696,13 @@
         <v>44922</v>
       </c>
       <c r="B13" t="n">
-        <v>64.94814323211281</v>
+        <v>72.51826069634336</v>
       </c>
       <c r="C13" t="n">
-        <v>-10.1198782436738</v>
+        <v>-10.08550545829584</v>
       </c>
       <c r="D13" t="n">
-        <v>138.5077470075192</v>
+        <v>157.7295740836659</v>
       </c>
       <c r="E13" t="n">
         <v>232</v>
@@ -716,13 +716,13 @@
         <v>44929</v>
       </c>
       <c r="B14" t="n">
-        <v>205.4382017414795</v>
+        <v>210.3757764225968</v>
       </c>
       <c r="C14" t="n">
-        <v>130.2662503211558</v>
+        <v>126.3933637745561</v>
       </c>
       <c r="D14" t="n">
-        <v>279.7484537179501</v>
+        <v>302.7479854038078</v>
       </c>
       <c r="E14" t="n">
         <v>240</v>
@@ -736,13 +736,13 @@
         <v>44950</v>
       </c>
       <c r="B15" t="n">
-        <v>70.00259333333668</v>
+        <v>87.13558376844185</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.255772553872746</v>
+        <v>4.883278972821406</v>
       </c>
       <c r="D15" t="n">
-        <v>143.1871223224882</v>
+        <v>173.7273952272127</v>
       </c>
       <c r="E15" t="n">
         <v>496</v>
@@ -756,13 +756,13 @@
         <v>44974</v>
       </c>
       <c r="B16" t="n">
-        <v>89.51712501244103</v>
+        <v>107.0147174955675</v>
       </c>
       <c r="C16" t="n">
-        <v>-4.338555320477719</v>
+        <v>7.235654307249112</v>
       </c>
       <c r="D16" t="n">
-        <v>181.8697576768194</v>
+        <v>200.4352898672845</v>
       </c>
       <c r="E16" t="n">
         <v>48</v>
@@ -776,13 +776,13 @@
         <v>44980</v>
       </c>
       <c r="B17" t="n">
-        <v>-68.61086331873831</v>
+        <v>-55.98635250332286</v>
       </c>
       <c r="C17" t="n">
-        <v>-159.6015005121283</v>
+        <v>-152.1455070756504</v>
       </c>
       <c r="D17" t="n">
-        <v>21.97575908474723</v>
+        <v>47.89241263182478</v>
       </c>
       <c r="E17" t="n">
         <v>32</v>
@@ -796,13 +796,13 @@
         <v>44985</v>
       </c>
       <c r="B18" t="n">
-        <v>101.5612274911317</v>
+        <v>107.8670572437734</v>
       </c>
       <c r="C18" t="n">
-        <v>6.071602706716519</v>
+        <v>12.96827619732174</v>
       </c>
       <c r="D18" t="n">
-        <v>185.0783933295824</v>
+        <v>206.7074894057326</v>
       </c>
       <c r="E18" t="n">
         <v>24</v>
@@ -816,13 +816,13 @@
         <v>44988</v>
       </c>
       <c r="B19" t="n">
-        <v>88.98296560825212</v>
+        <v>100.6660952194443</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1152382259233792</v>
+        <v>6.422979100514476</v>
       </c>
       <c r="D19" t="n">
-        <v>177.7443668200114</v>
+        <v>206.2953967420077</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -836,13 +836,13 @@
         <v>44992</v>
       </c>
       <c r="B20" t="n">
-        <v>132.2301335541274</v>
+        <v>137.8832507693187</v>
       </c>
       <c r="C20" t="n">
-        <v>44.93806213275497</v>
+        <v>47.1430896172024</v>
       </c>
       <c r="D20" t="n">
-        <v>210.7191981315592</v>
+        <v>237.1112916164487</v>
       </c>
       <c r="E20" t="n">
         <v>48</v>
@@ -856,13 +856,13 @@
         <v>44999</v>
       </c>
       <c r="B21" t="n">
-        <v>116.7822980758811</v>
+        <v>122.0012961571952</v>
       </c>
       <c r="C21" t="n">
-        <v>26.21367603164722</v>
+        <v>29.21323105169311</v>
       </c>
       <c r="D21" t="n">
-        <v>197.8279160849675</v>
+        <v>220.0172040081793</v>
       </c>
       <c r="E21" t="n">
         <v>72</v>
@@ -876,13 +876,13 @@
         <v>45006</v>
       </c>
       <c r="B22" t="n">
-        <v>50.60779976474897</v>
+        <v>56.62465833618466</v>
       </c>
       <c r="C22" t="n">
-        <v>-40.3580730701767</v>
+        <v>-35.38170242222517</v>
       </c>
       <c r="D22" t="n">
-        <v>142.50181954626</v>
+        <v>156.8312898731131</v>
       </c>
       <c r="E22" t="n">
         <v>48</v>
@@ -896,13 +896,13 @@
         <v>45013</v>
       </c>
       <c r="B23" t="n">
-        <v>4.464683220955017</v>
+        <v>9.758679114110969</v>
       </c>
       <c r="C23" t="n">
-        <v>-85.99098361181291</v>
+        <v>-76.01292725761017</v>
       </c>
       <c r="D23" t="n">
-        <v>92.88847346974272</v>
+        <v>97.29228882942294</v>
       </c>
       <c r="E23" t="n">
         <v>440</v>
@@ -916,13 +916,13 @@
         <v>45020</v>
       </c>
       <c r="B24" t="n">
-        <v>191.8259284848882</v>
+        <v>194.455084845945</v>
       </c>
       <c r="C24" t="n">
-        <v>83.24554220574392</v>
+        <v>82.57692880211292</v>
       </c>
       <c r="D24" t="n">
-        <v>289.9636977123985</v>
+        <v>292.8934364481653</v>
       </c>
       <c r="E24" t="n">
         <v>56</v>
@@ -936,13 +936,13 @@
         <v>45027</v>
       </c>
       <c r="B25" t="n">
-        <v>397.7686908716798</v>
+        <v>398.0553911179992</v>
       </c>
       <c r="C25" t="n">
-        <v>293.0283117376596</v>
+        <v>284.6712022727658</v>
       </c>
       <c r="D25" t="n">
-        <v>512.8749230617165</v>
+        <v>503.1138933797689</v>
       </c>
       <c r="E25" t="n">
         <v>176</v>
@@ -956,13 +956,13 @@
         <v>45034</v>
       </c>
       <c r="B26" t="n">
-        <v>634.000142459623</v>
+        <v>634.7513923979724</v>
       </c>
       <c r="C26" t="n">
-        <v>527.4008795832113</v>
+        <v>522.208802899875</v>
       </c>
       <c r="D26" t="n">
-        <v>745.0531439531009</v>
+        <v>752.1044122325145</v>
       </c>
       <c r="E26" t="n">
         <v>1016</v>
@@ -976,13 +976,13 @@
         <v>45040</v>
       </c>
       <c r="B27" t="n">
-        <v>876.9840397674401</v>
+        <v>869.4416964372708</v>
       </c>
       <c r="C27" t="n">
-        <v>764.426800296689</v>
+        <v>751.6484056360792</v>
       </c>
       <c r="D27" t="n">
-        <v>989.2878580001722</v>
+        <v>991.4421133129821</v>
       </c>
       <c r="E27" t="n">
         <v>920</v>
@@ -996,13 +996,13 @@
         <v>45048</v>
       </c>
       <c r="B28" t="n">
-        <v>801.4659566233997</v>
+        <v>807.8413694630013</v>
       </c>
       <c r="C28" t="n">
-        <v>686.1061503118555</v>
+        <v>689.254661929396</v>
       </c>
       <c r="D28" t="n">
-        <v>916.3048264933911</v>
+        <v>927.8805341281137</v>
       </c>
       <c r="E28" t="n">
         <v>424</v>
@@ -1016,13 +1016,13 @@
         <v>45055</v>
       </c>
       <c r="B29" t="n">
-        <v>313.1734703974248</v>
+        <v>314.906655892397</v>
       </c>
       <c r="C29" t="n">
-        <v>196.5546913241668</v>
+        <v>182.8986303925784</v>
       </c>
       <c r="D29" t="n">
-        <v>434.8279735675351</v>
+        <v>440.1277519813713</v>
       </c>
       <c r="E29" t="n">
         <v>64</v>
@@ -1097,22 +1097,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>29382.11712719221</v>
+        <v>30329.07455098469</v>
       </c>
       <c r="C2" t="n">
-        <v>171.4121265464968</v>
+        <v>174.1524462962972</v>
       </c>
       <c r="D2" t="n">
-        <v>117.6191376268969</v>
+        <v>124.9143181500585</v>
       </c>
       <c r="E2" t="n">
-        <v>3.163009599597912</v>
+        <v>3.619240694129783</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8908554653922011</v>
+        <v>1.073122053755732</v>
       </c>
       <c r="G2" t="n">
-        <v>1.127656563178096</v>
+        <v>1.175924675963815</v>
       </c>
       <c r="H2" t="n">
         <v>0.75</v>
@@ -1123,22 +1123,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>5186.870727593774</v>
+        <v>5539.755339799724</v>
       </c>
       <c r="C3" t="n">
-        <v>72.01993284913402</v>
+        <v>74.4295327124907</v>
       </c>
       <c r="D3" t="n">
-        <v>67.66902597872325</v>
+        <v>71.44019764380789</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4355304344572126</v>
+        <v>0.4396295340931741</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4355304344572126</v>
+        <v>0.4396295340931741</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7250584466698949</v>
+        <v>0.7293742569794858</v>
       </c>
       <c r="H3" t="n">
         <v>0.5</v>
@@ -1149,22 +1149,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>46065.3381151387</v>
+        <v>45440.76311644382</v>
       </c>
       <c r="C4" t="n">
-        <v>214.6283721112815</v>
+        <v>213.1683914571854</v>
       </c>
       <c r="D4" t="n">
-        <v>159.0752825119034</v>
+        <v>159.0054408032724</v>
       </c>
       <c r="E4" t="n">
-        <v>1.10740166884357</v>
+        <v>1.134474637808342</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8499563903384894</v>
+        <v>0.8243234198216898</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8634208618009254</v>
+        <v>0.8629593944860812</v>
       </c>
       <c r="H4" t="n">
         <v>0.4761904761904763</v>

--- a/modelos/OBAFAR4425031/OBAFAR4425031_Sell in_metricas.xlsx
+++ b/modelos/OBAFAR4425031/OBAFAR4425031_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,119 +473,119 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44782</v>
+        <v>44775</v>
       </c>
       <c r="B2" t="n">
-        <v>72.19704849588055</v>
+        <v>43.67297732782959</v>
       </c>
       <c r="C2" t="n">
-        <v>9.270190685837425</v>
+        <v>-25.83279199898926</v>
       </c>
       <c r="D2" t="n">
-        <v>135.3932098545754</v>
+        <v>106.6486421880515</v>
       </c>
       <c r="E2" t="n">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44775</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44789</v>
+        <v>44782</v>
       </c>
       <c r="B3" t="n">
-        <v>39.53836264016435</v>
+        <v>78.46521802271421</v>
       </c>
       <c r="C3" t="n">
-        <v>-20.15004863937484</v>
+        <v>14.98949714166178</v>
       </c>
       <c r="D3" t="n">
-        <v>103.2695299024152</v>
+        <v>145.803602105397</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44782</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44796</v>
+        <v>44789</v>
       </c>
       <c r="B4" t="n">
-        <v>-23.51282096537723</v>
+        <v>41.38804486448585</v>
       </c>
       <c r="C4" t="n">
-        <v>-95.18728661989614</v>
+        <v>-18.95361959215458</v>
       </c>
       <c r="D4" t="n">
-        <v>41.39958251885888</v>
+        <v>106.8846361453101</v>
       </c>
       <c r="E4" t="n">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44789</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44803</v>
+        <v>44796</v>
       </c>
       <c r="B5" t="n">
-        <v>7.202098630534961</v>
+        <v>-24.43709541138379</v>
       </c>
       <c r="C5" t="n">
-        <v>-59.50060245227243</v>
+        <v>-84.57909533071089</v>
       </c>
       <c r="D5" t="n">
-        <v>73.34293997778313</v>
+        <v>42.57422963727842</v>
       </c>
       <c r="E5" t="n">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44796</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44806</v>
+        <v>44803</v>
       </c>
       <c r="B6" t="n">
-        <v>41.93896239785101</v>
+        <v>10.41884732321015</v>
       </c>
       <c r="C6" t="n">
-        <v>-22.38999976539233</v>
+        <v>-56.01418826991916</v>
       </c>
       <c r="D6" t="n">
-        <v>106.7918828051512</v>
+        <v>73.76028519091689</v>
       </c>
       <c r="E6" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44803</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44810</v>
+        <v>44806</v>
       </c>
       <c r="B7" t="n">
-        <v>136.0938230976588</v>
+        <v>47.31376270532619</v>
       </c>
       <c r="C7" t="n">
-        <v>68.45429452538249</v>
+        <v>-13.47960935164111</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1609547285594</v>
+        <v>115.3235924241593</v>
       </c>
       <c r="E7" t="n">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>44803</v>
@@ -593,99 +593,99 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44817</v>
+        <v>44810</v>
       </c>
       <c r="B8" t="n">
-        <v>315.2296339927001</v>
+        <v>145.6060624863958</v>
       </c>
       <c r="C8" t="n">
-        <v>249.5100587077077</v>
+        <v>73.42823683511209</v>
       </c>
       <c r="D8" t="n">
-        <v>377.5276337165363</v>
+        <v>208.1552856038093</v>
       </c>
       <c r="E8" t="n">
-        <v>440</v>
+        <v>120</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44810</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44831</v>
+        <v>44817</v>
       </c>
       <c r="B9" t="n">
-        <v>444.7782009436509</v>
+        <v>322.072252244166</v>
       </c>
       <c r="C9" t="n">
-        <v>373.7043677301081</v>
+        <v>254.0971347600093</v>
       </c>
       <c r="D9" t="n">
-        <v>514.0731975426356</v>
+        <v>384.6788663929597</v>
       </c>
       <c r="E9" t="n">
-        <v>136</v>
+        <v>440</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44824</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44865</v>
+        <v>44831</v>
       </c>
       <c r="B10" t="n">
-        <v>19.67790827511341</v>
+        <v>437.1300236585716</v>
       </c>
       <c r="C10" t="n">
-        <v>-52.53410657803734</v>
+        <v>369.254916357555</v>
       </c>
       <c r="D10" t="n">
-        <v>96.30259753920085</v>
+        <v>500.0851416914292</v>
       </c>
       <c r="E10" t="n">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44859</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44869</v>
+        <v>44865</v>
       </c>
       <c r="B11" t="n">
-        <v>29.96250251262887</v>
+        <v>21.93095624031331</v>
       </c>
       <c r="C11" t="n">
-        <v>-46.21719968914707</v>
+        <v>-51.41009321231368</v>
       </c>
       <c r="D11" t="n">
-        <v>101.9256179464645</v>
+        <v>91.13411747585791</v>
       </c>
       <c r="E11" t="n">
-        <v>360</v>
+        <v>112</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44866</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44873</v>
+        <v>44869</v>
       </c>
       <c r="B12" t="n">
-        <v>11.80148419496288</v>
+        <v>25.64010317413558</v>
       </c>
       <c r="C12" t="n">
-        <v>-64.53568364805199</v>
+        <v>-48.90532277947975</v>
       </c>
       <c r="D12" t="n">
-        <v>88.90074543941081</v>
+        <v>103.1095172053249</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>360</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>44866</v>
@@ -693,119 +693,119 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44922</v>
+        <v>44873</v>
       </c>
       <c r="B13" t="n">
-        <v>72.51826069634336</v>
+        <v>7.358942250275231</v>
       </c>
       <c r="C13" t="n">
-        <v>-10.08550545829584</v>
+        <v>-68.44892227852658</v>
       </c>
       <c r="D13" t="n">
-        <v>157.7295740836659</v>
+        <v>81.86474601806961</v>
       </c>
       <c r="E13" t="n">
-        <v>232</v>
+        <v>8</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44915</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
       <c r="B14" t="n">
-        <v>210.3757764225968</v>
+        <v>111.3344434123735</v>
       </c>
       <c r="C14" t="n">
-        <v>126.3933637745561</v>
+        <v>26.18547323647644</v>
       </c>
       <c r="D14" t="n">
-        <v>302.7479854038078</v>
+        <v>194.9792708769999</v>
       </c>
       <c r="E14" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44950</v>
+        <v>44929</v>
       </c>
       <c r="B15" t="n">
-        <v>87.13558376844185</v>
+        <v>282.2454795843191</v>
       </c>
       <c r="C15" t="n">
-        <v>4.883278972821406</v>
+        <v>196.9239063723251</v>
       </c>
       <c r="D15" t="n">
-        <v>173.7273952272127</v>
+        <v>369.1531004450618</v>
       </c>
       <c r="E15" t="n">
-        <v>496</v>
+        <v>240</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44943</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44974</v>
+        <v>44950</v>
       </c>
       <c r="B16" t="n">
-        <v>107.0147174955675</v>
+        <v>88.49148896813655</v>
       </c>
       <c r="C16" t="n">
-        <v>7.235654307249112</v>
+        <v>7.153794723266489</v>
       </c>
       <c r="D16" t="n">
-        <v>200.4352898672845</v>
+        <v>167.3192944547881</v>
       </c>
       <c r="E16" t="n">
-        <v>48</v>
+        <v>496</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44971</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44980</v>
+        <v>44974</v>
       </c>
       <c r="B17" t="n">
-        <v>-55.98635250332286</v>
+        <v>106.9168557019668</v>
       </c>
       <c r="C17" t="n">
-        <v>-152.1455070756504</v>
+        <v>9.844347176764478</v>
       </c>
       <c r="D17" t="n">
-        <v>47.89241263182478</v>
+        <v>202.5969714510404</v>
       </c>
       <c r="E17" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44978</v>
+        <v>44971</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="B18" t="n">
-        <v>107.8670572437734</v>
+        <v>-64.48591000143242</v>
       </c>
       <c r="C18" t="n">
-        <v>12.96827619732174</v>
+        <v>-163.0486654726785</v>
       </c>
       <c r="D18" t="n">
-        <v>206.7074894057326</v>
+        <v>29.93228398380884</v>
       </c>
       <c r="E18" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>44978</v>
@@ -813,39 +813,39 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44988</v>
+        <v>44985</v>
       </c>
       <c r="B19" t="n">
-        <v>100.6660952194443</v>
+        <v>102.9597092374275</v>
       </c>
       <c r="C19" t="n">
-        <v>6.422979100514476</v>
+        <v>10.51566619032775</v>
       </c>
       <c r="D19" t="n">
-        <v>206.2953967420077</v>
+        <v>203.5400056213093</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44992</v>
+        <v>44988</v>
       </c>
       <c r="B20" t="n">
-        <v>137.8832507693187</v>
+        <v>93.88882177465379</v>
       </c>
       <c r="C20" t="n">
-        <v>47.1430896172024</v>
+        <v>-2.706008122733683</v>
       </c>
       <c r="D20" t="n">
-        <v>237.1112916164487</v>
+        <v>192.0395402440616</v>
       </c>
       <c r="E20" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>44985</v>
@@ -853,181 +853,201 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="B21" t="n">
-        <v>122.0012961571952</v>
+        <v>131.0230797011025</v>
       </c>
       <c r="C21" t="n">
-        <v>29.21323105169311</v>
+        <v>41.55162685244336</v>
       </c>
       <c r="D21" t="n">
-        <v>220.0172040081793</v>
+        <v>219.9436281164774</v>
       </c>
       <c r="E21" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
       <c r="B22" t="n">
-        <v>56.62465833618466</v>
+        <v>119.8374317707235</v>
       </c>
       <c r="C22" t="n">
-        <v>-35.38170242222517</v>
+        <v>22.40844577836414</v>
       </c>
       <c r="D22" t="n">
-        <v>156.8312898731131</v>
+        <v>210.7680719308995</v>
       </c>
       <c r="E22" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
       <c r="B23" t="n">
-        <v>9.758679114110969</v>
+        <v>57.75511885645714</v>
       </c>
       <c r="C23" t="n">
-        <v>-76.01292725761017</v>
+        <v>-36.09596027477249</v>
       </c>
       <c r="D23" t="n">
-        <v>97.29228882942294</v>
+        <v>153.9250855798086</v>
       </c>
       <c r="E23" t="n">
-        <v>440</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="B24" t="n">
-        <v>194.455084845945</v>
+        <v>8.682288640377422</v>
       </c>
       <c r="C24" t="n">
-        <v>82.57692880211292</v>
+        <v>-76.82796133834321</v>
       </c>
       <c r="D24" t="n">
-        <v>292.8934364481653</v>
+        <v>105.8578210950399</v>
       </c>
       <c r="E24" t="n">
-        <v>56</v>
+        <v>440</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
       <c r="B25" t="n">
-        <v>398.0553911179992</v>
+        <v>189.7370896710929</v>
       </c>
       <c r="C25" t="n">
-        <v>284.6712022727658</v>
+        <v>83.97495765434077</v>
       </c>
       <c r="D25" t="n">
-        <v>503.1138933797689</v>
+        <v>296.7736655697873</v>
       </c>
       <c r="E25" t="n">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
       <c r="B26" t="n">
-        <v>634.7513923979724</v>
+        <v>392.9969115874597</v>
       </c>
       <c r="C26" t="n">
-        <v>522.208802899875</v>
+        <v>284.7104008805633</v>
       </c>
       <c r="D26" t="n">
-        <v>752.1044122325145</v>
+        <v>497.8197189234795</v>
       </c>
       <c r="E26" t="n">
-        <v>1016</v>
+        <v>176</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45040</v>
+        <v>45034</v>
       </c>
       <c r="B27" t="n">
-        <v>869.4416964372708</v>
+        <v>633.9400033072183</v>
       </c>
       <c r="C27" t="n">
-        <v>751.6484056360792</v>
+        <v>526.5827006137109</v>
       </c>
       <c r="D27" t="n">
-        <v>991.4421133129821</v>
+        <v>743.3548242962562</v>
       </c>
       <c r="E27" t="n">
-        <v>920</v>
+        <v>1016</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45048</v>
+        <v>45040</v>
       </c>
       <c r="B28" t="n">
-        <v>807.8413694630013</v>
+        <v>877.07741870913</v>
       </c>
       <c r="C28" t="n">
-        <v>689.254661929396</v>
+        <v>757.0680417823323</v>
       </c>
       <c r="D28" t="n">
-        <v>927.8805341281137</v>
+        <v>991.3598089533451</v>
       </c>
       <c r="E28" t="n">
-        <v>424</v>
+        <v>920</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45041</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B29" t="n">
+        <v>808.1063836022432</v>
+      </c>
+      <c r="C29" t="n">
+        <v>685.7310748435685</v>
+      </c>
+      <c r="D29" t="n">
+        <v>930.7105512069132</v>
+      </c>
+      <c r="E29" t="n">
+        <v>424</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>45055</v>
       </c>
-      <c r="B29" t="n">
-        <v>314.906655892397</v>
-      </c>
-      <c r="C29" t="n">
-        <v>182.8986303925784</v>
-      </c>
-      <c r="D29" t="n">
-        <v>440.1277519813713</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="B30" t="n">
+        <v>311.8143927224703</v>
+      </c>
+      <c r="C30" t="n">
+        <v>199.1269963006709</v>
+      </c>
+      <c r="D30" t="n">
+        <v>440.1484697478925</v>
+      </c>
+      <c r="E30" t="n">
         <v>64</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F30" s="2" t="n">
         <v>45048</v>
       </c>
     </row>
@@ -1097,22 +1117,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>30329.07455098469</v>
+        <v>30797.0394321319</v>
       </c>
       <c r="C2" t="n">
-        <v>174.1524462962972</v>
+        <v>175.4908528446195</v>
       </c>
       <c r="D2" t="n">
-        <v>124.9143181500585</v>
+        <v>125.6198342519528</v>
       </c>
       <c r="E2" t="n">
-        <v>3.619240694129783</v>
+        <v>3.465930371548562</v>
       </c>
       <c r="F2" t="n">
-        <v>1.073122053755732</v>
+        <v>1.099420636589783</v>
       </c>
       <c r="G2" t="n">
-        <v>1.175924675963815</v>
+        <v>1.208611362879027</v>
       </c>
       <c r="H2" t="n">
         <v>0.75</v>
@@ -1123,22 +1143,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>5539.755339799724</v>
+        <v>4977.390314227849</v>
       </c>
       <c r="C3" t="n">
-        <v>74.4295327124907</v>
+        <v>70.55062235181096</v>
       </c>
       <c r="D3" t="n">
-        <v>71.44019764380789</v>
+        <v>66.49581252527832</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4396295340931741</v>
+        <v>0.4254214351877387</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4396295340931741</v>
+        <v>0.4254214351877387</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7293742569794858</v>
+        <v>0.6963882107123441</v>
       </c>
       <c r="H3" t="n">
         <v>0.5</v>
@@ -1149,25 +1169,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>45440.76311644382</v>
+        <v>42419.2909939005</v>
       </c>
       <c r="C4" t="n">
-        <v>213.1683914571854</v>
+        <v>205.9594401669914</v>
       </c>
       <c r="D4" t="n">
-        <v>159.0054408032724</v>
+        <v>150.6283759967664</v>
       </c>
       <c r="E4" t="n">
-        <v>1.134474637808342</v>
+        <v>1.053143920759807</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8243234198216898</v>
+        <v>0.7236747276799185</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8629593944860812</v>
+        <v>0.8093389973894585</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4761904761904763</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAFAR4425031/OBAFAR4425031_Sell in_metricas.xlsx
+++ b/modelos/OBAFAR4425031/OBAFAR4425031_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,119 +473,119 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="B2" t="n">
+        <v>72.19704850882306</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.713167598805431</v>
+      </c>
+      <c r="D2" t="n">
+        <v>142.4398575615853</v>
+      </c>
+      <c r="E2" t="n">
+        <v>104</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>44775</v>
-      </c>
-      <c r="B2" t="n">
-        <v>43.67297732782959</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-25.83279199898926</v>
-      </c>
-      <c r="D2" t="n">
-        <v>106.6486421880515</v>
-      </c>
-      <c r="E2" t="n">
-        <v>88</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>44768</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B3" t="n">
+        <v>39.53838508769803</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-24.91380517165124</v>
+      </c>
+      <c r="D3" t="n">
+        <v>105.3628612359312</v>
+      </c>
+      <c r="E3" t="n">
+        <v>80</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>44782</v>
-      </c>
-      <c r="B3" t="n">
-        <v>78.46521802271421</v>
-      </c>
-      <c r="C3" t="n">
-        <v>14.98949714166178</v>
-      </c>
-      <c r="D3" t="n">
-        <v>145.803602105397</v>
-      </c>
-      <c r="E3" t="n">
-        <v>104</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>44775</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-23.51282096533375</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-81.53956306510398</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43.21212687664627</v>
+      </c>
+      <c r="E4" t="n">
+        <v>112</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>44789</v>
-      </c>
-      <c r="B4" t="n">
-        <v>41.38804486448585</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-18.95361959215458</v>
-      </c>
-      <c r="D4" t="n">
-        <v>106.8846361453101</v>
-      </c>
-      <c r="E4" t="n">
-        <v>80</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>44782</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7.202095150403911</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-53.57901109711948</v>
+      </c>
+      <c r="D5" t="n">
+        <v>78.24288296031477</v>
+      </c>
+      <c r="E5" t="n">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>44796</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-24.43709541138379</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-84.57909533071089</v>
-      </c>
-      <c r="D5" t="n">
-        <v>42.57422963727842</v>
-      </c>
-      <c r="E5" t="n">
-        <v>112</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>44789</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B6" t="n">
+        <v>41.93896239783364</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-27.18212361006639</v>
+      </c>
+      <c r="D6" t="n">
+        <v>107.3137760982408</v>
+      </c>
+      <c r="E6" t="n">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>44803</v>
-      </c>
-      <c r="B6" t="n">
-        <v>10.41884732321015</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-56.01418826991916</v>
-      </c>
-      <c r="D6" t="n">
-        <v>73.76028519091689</v>
-      </c>
-      <c r="E6" t="n">
-        <v>48</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>44796</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44806</v>
+        <v>44810</v>
       </c>
       <c r="B7" t="n">
-        <v>47.31376270532619</v>
+        <v>136.0938230976413</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.47960935164111</v>
+        <v>69.91135488571624</v>
       </c>
       <c r="D7" t="n">
-        <v>115.3235924241593</v>
+        <v>206.7758788590365</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>44803</v>
@@ -593,99 +593,99 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B8" t="n">
+        <v>315.229633992728</v>
+      </c>
+      <c r="C8" t="n">
+        <v>251.4228011171894</v>
+      </c>
+      <c r="D8" t="n">
+        <v>381.3171377858055</v>
+      </c>
+      <c r="E8" t="n">
+        <v>440</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>44810</v>
-      </c>
-      <c r="B8" t="n">
-        <v>145.6060624863958</v>
-      </c>
-      <c r="C8" t="n">
-        <v>73.42823683511209</v>
-      </c>
-      <c r="D8" t="n">
-        <v>208.1552856038093</v>
-      </c>
-      <c r="E8" t="n">
-        <v>120</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>44803</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44817</v>
+        <v>44831</v>
       </c>
       <c r="B9" t="n">
-        <v>322.072252244166</v>
+        <v>444.7782009442683</v>
       </c>
       <c r="C9" t="n">
-        <v>254.0971347600093</v>
+        <v>376.7995100114665</v>
       </c>
       <c r="D9" t="n">
-        <v>384.6788663929597</v>
+        <v>509.8801834544951</v>
       </c>
       <c r="E9" t="n">
-        <v>440</v>
+        <v>136</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44810</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44831</v>
+        <v>44865</v>
       </c>
       <c r="B10" t="n">
-        <v>437.1300236585716</v>
+        <v>19.67790827511204</v>
       </c>
       <c r="C10" t="n">
-        <v>369.254916357555</v>
+        <v>-43.41561420438169</v>
       </c>
       <c r="D10" t="n">
-        <v>500.0851416914292</v>
+        <v>93.31112797204433</v>
       </c>
       <c r="E10" t="n">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44824</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44865</v>
+        <v>44869</v>
       </c>
       <c r="B11" t="n">
-        <v>21.93095624031331</v>
+        <v>29.96250251074695</v>
       </c>
       <c r="C11" t="n">
-        <v>-51.41009321231368</v>
+        <v>-42.54210203402737</v>
       </c>
       <c r="D11" t="n">
-        <v>91.13411747585791</v>
+        <v>102.3615390812017</v>
       </c>
       <c r="E11" t="n">
-        <v>112</v>
+        <v>360</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44859</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="B12" t="n">
-        <v>25.64010317413558</v>
+        <v>11.80148419306641</v>
       </c>
       <c r="C12" t="n">
-        <v>-48.90532277947975</v>
+        <v>-62.56262119480183</v>
       </c>
       <c r="D12" t="n">
-        <v>103.1095172053249</v>
+        <v>90.39105092626622</v>
       </c>
       <c r="E12" t="n">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>44866</v>
@@ -693,119 +693,119 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44873</v>
+        <v>44922</v>
       </c>
       <c r="B13" t="n">
-        <v>7.358942250275231</v>
+        <v>72.51826066602469</v>
       </c>
       <c r="C13" t="n">
-        <v>-68.44892227852658</v>
+        <v>-8.762309156262688</v>
       </c>
       <c r="D13" t="n">
-        <v>81.86474601806961</v>
+        <v>161.6776359824607</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>232</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44866</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B14" t="n">
+        <v>210.3757764226604</v>
+      </c>
+      <c r="C14" t="n">
+        <v>125.4912079476022</v>
+      </c>
+      <c r="D14" t="n">
+        <v>295.8001163453845</v>
+      </c>
+      <c r="E14" t="n">
+        <v>240</v>
+      </c>
+      <c r="F14" s="2" t="n">
         <v>44922</v>
-      </c>
-      <c r="B14" t="n">
-        <v>111.3344434123735</v>
-      </c>
-      <c r="C14" t="n">
-        <v>26.18547323647644</v>
-      </c>
-      <c r="D14" t="n">
-        <v>194.9792708769999</v>
-      </c>
-      <c r="E14" t="n">
-        <v>232</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>44915</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44929</v>
+        <v>44950</v>
       </c>
       <c r="B15" t="n">
-        <v>282.2454795843191</v>
+        <v>87.13559497160858</v>
       </c>
       <c r="C15" t="n">
-        <v>196.9239063723251</v>
+        <v>2.749392306366917</v>
       </c>
       <c r="D15" t="n">
-        <v>369.1531004450618</v>
+        <v>168.5848489461856</v>
       </c>
       <c r="E15" t="n">
-        <v>240</v>
+        <v>496</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44922</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44950</v>
+        <v>44974</v>
       </c>
       <c r="B16" t="n">
-        <v>88.49148896813655</v>
+        <v>107.0147162908366</v>
       </c>
       <c r="C16" t="n">
-        <v>7.153794723266489</v>
+        <v>12.39022943866061</v>
       </c>
       <c r="D16" t="n">
-        <v>167.3192944547881</v>
+        <v>206.4461846198355</v>
       </c>
       <c r="E16" t="n">
-        <v>496</v>
+        <v>48</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44943</v>
+        <v>44971</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44974</v>
+        <v>44980</v>
       </c>
       <c r="B17" t="n">
-        <v>106.9168557019668</v>
+        <v>-55.98635280874015</v>
       </c>
       <c r="C17" t="n">
-        <v>9.844347176764478</v>
+        <v>-149.9901859392233</v>
       </c>
       <c r="D17" t="n">
-        <v>202.5969714510404</v>
+        <v>40.4677191835496</v>
       </c>
       <c r="E17" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44971</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="B18" t="n">
-        <v>-64.48591000143242</v>
+        <v>107.867056933828</v>
       </c>
       <c r="C18" t="n">
-        <v>-163.0486654726785</v>
+        <v>15.60284676818615</v>
       </c>
       <c r="D18" t="n">
-        <v>29.93228398380884</v>
+        <v>199.0939370357571</v>
       </c>
       <c r="E18" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>44978</v>
@@ -813,39 +813,39 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="B19" t="n">
+        <v>100.6660954071174</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5927226469312583</v>
+      </c>
+      <c r="D19" t="n">
+        <v>192.3778290621881</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8</v>
+      </c>
+      <c r="F19" s="2" t="n">
         <v>44985</v>
-      </c>
-      <c r="B19" t="n">
-        <v>102.9597092374275</v>
-      </c>
-      <c r="C19" t="n">
-        <v>10.51566619032775</v>
-      </c>
-      <c r="D19" t="n">
-        <v>203.5400056213093</v>
-      </c>
-      <c r="E19" t="n">
-        <v>24</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>44978</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="B20" t="n">
-        <v>93.88882177465379</v>
+        <v>137.8832509596744</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.706008122733683</v>
+        <v>36.88195466843038</v>
       </c>
       <c r="D20" t="n">
-        <v>192.0395402440616</v>
+        <v>233.6743199756043</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>44985</v>
@@ -853,201 +853,181 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>122.0012934760325</v>
+      </c>
+      <c r="C21" t="n">
+        <v>26.71884623014876</v>
+      </c>
+      <c r="D21" t="n">
+        <v>227.6143707191904</v>
+      </c>
+      <c r="E21" t="n">
+        <v>72</v>
+      </c>
+      <c r="F21" s="2" t="n">
         <v>44992</v>
-      </c>
-      <c r="B21" t="n">
-        <v>131.0230797011025</v>
-      </c>
-      <c r="C21" t="n">
-        <v>41.55162685244336</v>
-      </c>
-      <c r="D21" t="n">
-        <v>219.9436281164774</v>
-      </c>
-      <c r="E21" t="n">
-        <v>48</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>44985</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="B22" t="n">
+        <v>56.62465833640511</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-39.8489217575674</v>
+      </c>
+      <c r="D22" t="n">
+        <v>153.8537361661029</v>
+      </c>
+      <c r="E22" t="n">
+        <v>48</v>
+      </c>
+      <c r="F22" s="2" t="n">
         <v>44999</v>
-      </c>
-      <c r="B22" t="n">
-        <v>119.8374317707235</v>
-      </c>
-      <c r="C22" t="n">
-        <v>22.40844577836414</v>
-      </c>
-      <c r="D22" t="n">
-        <v>210.7680719308995</v>
-      </c>
-      <c r="E22" t="n">
-        <v>72</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>44992</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="B23" t="n">
+        <v>9.758678829764619</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-88.49802416161631</v>
+      </c>
+      <c r="D23" t="n">
+        <v>104.8157353581728</v>
+      </c>
+      <c r="E23" t="n">
+        <v>440</v>
+      </c>
+      <c r="F23" s="2" t="n">
         <v>45006</v>
-      </c>
-      <c r="B23" t="n">
-        <v>57.75511885645714</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-36.09596027477249</v>
-      </c>
-      <c r="D23" t="n">
-        <v>153.9250855798086</v>
-      </c>
-      <c r="E23" t="n">
-        <v>48</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>44999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="B24" t="n">
+        <v>194.4550848451451</v>
+      </c>
+      <c r="C24" t="n">
+        <v>87.10866002232667</v>
+      </c>
+      <c r="D24" t="n">
+        <v>298.5197582921245</v>
+      </c>
+      <c r="E24" t="n">
+        <v>56</v>
+      </c>
+      <c r="F24" s="2" t="n">
         <v>45013</v>
-      </c>
-      <c r="B24" t="n">
-        <v>8.682288640377422</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-76.82796133834321</v>
-      </c>
-      <c r="D24" t="n">
-        <v>105.8578210950399</v>
-      </c>
-      <c r="E24" t="n">
-        <v>440</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>45006</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="B25" t="n">
+        <v>398.0554086572849</v>
+      </c>
+      <c r="C25" t="n">
+        <v>290.5148706829515</v>
+      </c>
+      <c r="D25" t="n">
+        <v>509.2414168815177</v>
+      </c>
+      <c r="E25" t="n">
+        <v>176</v>
+      </c>
+      <c r="F25" s="2" t="n">
         <v>45020</v>
-      </c>
-      <c r="B25" t="n">
-        <v>189.7370896710929</v>
-      </c>
-      <c r="C25" t="n">
-        <v>83.97495765434077</v>
-      </c>
-      <c r="D25" t="n">
-        <v>296.7736655697873</v>
-      </c>
-      <c r="E25" t="n">
-        <v>56</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>45013</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B26" t="n">
+        <v>634.7513923987068</v>
+      </c>
+      <c r="C26" t="n">
+        <v>527.5241617366256</v>
+      </c>
+      <c r="D26" t="n">
+        <v>737.022054578345</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1016</v>
+      </c>
+      <c r="F26" s="2" t="n">
         <v>45027</v>
-      </c>
-      <c r="B26" t="n">
-        <v>392.9969115874597</v>
-      </c>
-      <c r="C26" t="n">
-        <v>284.7104008805633</v>
-      </c>
-      <c r="D26" t="n">
-        <v>497.8197189234795</v>
-      </c>
-      <c r="E26" t="n">
-        <v>176</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>45020</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B27" t="n">
+        <v>869.4416964179728</v>
+      </c>
+      <c r="C27" t="n">
+        <v>741.2110960216959</v>
+      </c>
+      <c r="D27" t="n">
+        <v>983.7137919389846</v>
+      </c>
+      <c r="E27" t="n">
+        <v>920</v>
+      </c>
+      <c r="F27" s="2" t="n">
         <v>45034</v>
-      </c>
-      <c r="B27" t="n">
-        <v>633.9400033072183</v>
-      </c>
-      <c r="C27" t="n">
-        <v>526.5827006137109</v>
-      </c>
-      <c r="D27" t="n">
-        <v>743.3548242962562</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1016</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>45027</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45040</v>
+        <v>45048</v>
       </c>
       <c r="B28" t="n">
-        <v>877.07741870913</v>
+        <v>807.8413960459367</v>
       </c>
       <c r="C28" t="n">
-        <v>757.0680417823323</v>
+        <v>681.1129272824975</v>
       </c>
       <c r="D28" t="n">
-        <v>991.3598089533451</v>
+        <v>928.565442467155</v>
       </c>
       <c r="E28" t="n">
-        <v>920</v>
+        <v>424</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45034</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45048</v>
+        <v>45055</v>
       </c>
       <c r="B29" t="n">
-        <v>808.1063836022432</v>
+        <v>314.9066558924985</v>
       </c>
       <c r="C29" t="n">
-        <v>685.7310748435685</v>
+        <v>187.4123243226066</v>
       </c>
       <c r="D29" t="n">
-        <v>930.7105512069132</v>
+        <v>433.0945309819472</v>
       </c>
       <c r="E29" t="n">
-        <v>424</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45041</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45055</v>
-      </c>
-      <c r="B30" t="n">
-        <v>311.8143927224703</v>
-      </c>
-      <c r="C30" t="n">
-        <v>199.1269963006709</v>
-      </c>
-      <c r="D30" t="n">
-        <v>440.1484697478925</v>
-      </c>
-      <c r="E30" t="n">
-        <v>64</v>
-      </c>
-      <c r="F30" s="2" t="n">
         <v>45048</v>
       </c>
     </row>
@@ -1117,22 +1097,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>30797.0394321319</v>
+        <v>30329.07452444213</v>
       </c>
       <c r="C2" t="n">
-        <v>175.4908528446195</v>
+        <v>174.1524462200923</v>
       </c>
       <c r="D2" t="n">
-        <v>125.6198342519528</v>
+        <v>124.9143178962602</v>
       </c>
       <c r="E2" t="n">
-        <v>3.465930371548562</v>
+        <v>3.619240693721051</v>
       </c>
       <c r="F2" t="n">
-        <v>1.099420636589783</v>
+        <v>1.073122041209066</v>
       </c>
       <c r="G2" t="n">
-        <v>1.208611362879027</v>
+        <v>1.175924673688823</v>
       </c>
       <c r="H2" t="n">
         <v>0.75</v>
@@ -1143,22 +1123,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>4977.390314227849</v>
+        <v>5539.755340775526</v>
       </c>
       <c r="C3" t="n">
-        <v>70.55062235181096</v>
+        <v>74.42953271904591</v>
       </c>
       <c r="D3" t="n">
-        <v>66.49581252527832</v>
+        <v>71.44019765345757</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4254214351877387</v>
+        <v>0.4396295341036683</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4254214351877387</v>
+        <v>0.4396295341036683</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6963882107123441</v>
+        <v>0.7293742569905927</v>
       </c>
       <c r="H3" t="n">
         <v>0.5</v>
@@ -1169,25 +1149,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>42419.2909939005</v>
+        <v>45440.76394835714</v>
       </c>
       <c r="C4" t="n">
-        <v>205.9594401669914</v>
+        <v>213.1683934084909</v>
       </c>
       <c r="D4" t="n">
-        <v>150.6283759967664</v>
+        <v>159.0054413485093</v>
       </c>
       <c r="E4" t="n">
-        <v>1.053143920759807</v>
+        <v>1.134474632374792</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7236747276799185</v>
+        <v>0.8243233972346601</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8093389973894585</v>
+        <v>0.8629593801848721</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5</v>
+        <v>0.4761904761904763</v>
       </c>
     </row>
   </sheetData>
